--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10443" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50331" uniqueCount="869">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50331" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71666" uniqueCount="869">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30974,7 +30974,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>90</v>
@@ -31316,7 +31316,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
@@ -31328,43 +31328,43 @@
         <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>90</v>
@@ -31373,7 +31373,7 @@
         <v>90</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>90</v>
@@ -31397,7 +31397,7 @@
         <v>90</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>90</v>
@@ -31409,22 +31409,22 @@
         <v>90</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8">
@@ -33116,7 +33116,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33407,13 +33407,13 @@
         <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>90</v>
@@ -33422,7 +33422,7 @@
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>90</v>
@@ -33440,13 +33440,13 @@
         <v>90</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>90</v>
@@ -33455,10 +33455,10 @@
         <v>90</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>90</v>
@@ -33467,13 +33467,13 @@
         <v>90</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33488,19 +33488,19 @@
         <v>90</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="AG25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33509,10 +33509,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26">
@@ -33520,7 +33520,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>90</v>
@@ -33592,7 +33592,7 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>90</v>
@@ -33610,7 +33610,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33622,7 +33622,7 @@
         <v>90</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>90</v>
@@ -33711,7 +33711,7 @@
         <v>90</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>90</v>
@@ -33752,73 +33752,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33830,37 +33830,37 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29">
@@ -35028,115 +35028,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40">
@@ -35144,115 +35144,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35260,115 +35260,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>112</v>
+        <v>317</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>112</v>
+        <v>351</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>112</v>
+        <v>406</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>112</v>
+        <v>507</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>112</v>
+        <v>535</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>112</v>
+        <v>556</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>112</v>
+        <v>584</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>112</v>
+        <v>618</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>112</v>
+        <v>674</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>112</v>
+        <v>699</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>112</v>
+        <v>729</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>112</v>
+        <v>745</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>112</v>
+        <v>772</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>112</v>
+        <v>803</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>112</v>
+        <v>836</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>112</v>
+        <v>854</v>
       </c>
     </row>
     <row r="42">
